--- a/Oceanography Grading.xlsx
+++ b/Oceanography Grading.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2190" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="671">
   <si>
     <t>SOFTWARE QUALITY GRADE</t>
   </si>
@@ -2606,6 +2606,22 @@
   </si>
   <si>
     <t>Reproducibility</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yellow background means R packages</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green means matlab toolbox</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>blue means ocean model frameworks</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>red word means software that were not installed successfully</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2976,7 +2992,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3184,6 +3200,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="134">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3651,10 +3671,10 @@
   <dimension ref="A1:AQ167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="200" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="S5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E38" sqref="E38"/>
+      <selection pane="bottomRight" activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
@@ -3689,18 +3709,26 @@
       <c r="B1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="28"/>
+      <c r="C1" s="28" t="s">
+        <v>667</v>
+      </c>
       <c r="D1" s="29"/>
       <c r="E1" s="29"/>
       <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="G1" s="30" t="s">
+        <v>668</v>
+      </c>
       <c r="H1" s="29"/>
       <c r="I1" s="29"/>
       <c r="J1" s="29"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
+      <c r="Q1" s="99" t="s">
+        <v>669</v>
+      </c>
+      <c r="R1" s="100"/>
+      <c r="S1" s="99"/>
+      <c r="T1" s="26" t="s">
+        <v>670</v>
+      </c>
       <c r="U1" s="52"/>
       <c r="V1" s="29"/>
       <c r="W1" s="47"/>
